--- a/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/quality_and_freight_data/Vessel Used.xlsx
+++ b/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/quality_and_freight_data/Vessel Used.xlsx
@@ -617,66 +617,18 @@
           <t>Weipa</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1019,66 +971,18 @@
           <t>Kuantan &amp; Johor</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1366,7 +1270,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1691,62 +1595,62 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Panamax</t>
+          <t>Capesize</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Panamax</t>
+          <t>Capesize</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Panamax</t>
+          <t>Capesize</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Panamax</t>
+          <t>Capesize</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Panamax</t>
+          <t>Capesize</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Panamax</t>
+          <t>Capesize</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Panamax</t>
+          <t>Capesize</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Panamax</t>
+          <t>Capesize</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Panamax</t>
+          <t>Capesize</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Panamax</t>
+          <t>Capesize</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Panamax</t>
+          <t>Capesize</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Panamax</t>
+          <t>Capesize</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1667,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2024,66 +1928,18 @@
           <t>Metro BH1**</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2091,66 +1947,18 @@
           <t>Amrun#</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2292,66 +2100,18 @@
           <t>SMB Malapouya/Boké</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2433,57 +2193,57 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
     </row>
@@ -2493,66 +2253,18 @@
           <t>Metro BH1 Xinfa*</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2562,12 +2274,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2694,42 +2406,18 @@
           <t>Other</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3072,66 +2760,18 @@
           <t>SMB Santou-Houda</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
